--- a/analysis/terms.xlsx
+++ b/analysis/terms.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimd999/Dropbox/script/python/srpAnalytics/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C7D3E1-3B2C-8D4F-8963-0E7530A736DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B81272-2E9B-5E4D-A63E-695000AF1B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6460" windowWidth="16420" windowHeight="11540" xr2:uid="{F882FDEF-851F-DC4A-B978-FE9B8FD86AFC}"/>
+    <workbookView xWindow="14940" yWindow="13480" windowWidth="24760" windowHeight="13020" xr2:uid="{F882FDEF-851F-DC4A-B978-FE9B8FD86AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$8</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>term</t>
   </si>
@@ -42,15 +45,9 @@
     <t>explanation</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>BMD10</t>
   </si>
   <si>
-    <t>Benchmark Dose (BMD10)—Usually defined as the lower confidence limit on the dose that produces a specified magnitude of changes in a specified adverse response. For example, a BMD10 would be the dose at the 95% lower confidence limit on a 10% response, and the benchmark response (BMR) would be 10%. The BMD is determined by modeling the dose response curve in the region of the dose response relationship where biologically observable data are feasible.</t>
-  </si>
-  <si>
     <t>https://www.atsdr.cdc.gov/toxprofiles/tp30-c10.pdf</t>
   </si>
   <si>
@@ -69,7 +66,55 @@
     <t>dose on a 50% response</t>
   </si>
   <si>
+    <t>TCHR</t>
+  </si>
+  <si>
+    <t>TR__</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>Akaike information criterion</t>
+  </si>
+  <si>
+    <t>estimator of in-sample prediction error and thereby relative quality of statistical models for a given set of data</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Akaike_information_criterion</t>
+  </si>
+  <si>
+    <t>AUC21</t>
+  </si>
+  <si>
+    <t>Represents the change in the area under the movement versus time curve between the dark and light periods, i.e., AUC21=AUC2 – AUC1, where AUC1 is the area under curve from 3 to 9 min (light) and AUC2 is the area under the curve from 10 to 16 min (dark).</t>
+  </si>
+  <si>
+    <t>Dennis paper</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>Phase I,II don't have this endpoint</t>
+  </si>
+  <si>
     <t>AUC</t>
+  </si>
+  <si>
+    <t>dose_response_auc</t>
+  </si>
+  <si>
+    <t>exists in bmd_vals in Phase I,II data</t>
+  </si>
+  <si>
+    <t>Benchmark Dose (BMD10) — Usually defined as the lower confidence limit on the dose that produces a specified magnitude of changes in a specified adverse response. For example, a BMD10 would be the dose at the 95% lower confidence limit on a 10% response, and the benchmark response (BMR) would be 10%. The BMD is determined by modeling the dose response curve in the region of the dose response relationship where biologically observable data are feasible.</t>
+  </si>
+  <si>
+    <t>seems different from AUC21</t>
   </si>
 </sst>
 </file>
@@ -421,64 +466,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6628B642-8DBE-B143-BB83-8906A12E6441}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:D8" xr:uid="{653FA9A4-0C92-5449-9984-ED304975102D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
+      <sortCondition ref="A1:A8"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/analysis/terms.xlsx
+++ b/analysis/terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimd999/Dropbox/script/python/srpAnalytics/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B81272-2E9B-5E4D-A63E-695000AF1B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D4C80D-0463-8D49-A179-97A1C8197BF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14940" yWindow="13480" windowWidth="24760" windowHeight="13020" xr2:uid="{F882FDEF-851F-DC4A-B978-FE9B8FD86AFC}"/>
   </bookViews>
@@ -111,10 +111,10 @@
     <t>exists in bmd_vals in Phase I,II data</t>
   </si>
   <si>
-    <t>Benchmark Dose (BMD10) — Usually defined as the lower confidence limit on the dose that produces a specified magnitude of changes in a specified adverse response. For example, a BMD10 would be the dose at the 95% lower confidence limit on a 10% response, and the benchmark response (BMR) would be 10%. The BMD is determined by modeling the dose response curve in the region of the dose response relationship where biologically observable data are feasible.</t>
-  </si>
-  <si>
     <t>seems different from AUC21</t>
+  </si>
+  <si>
+    <t>Benchmark Dose (BMD10) — Usually defined as the lower confidence limit on the dose that produces a specified magnitude of changes in a specified adverse response. For example, a BMD10 would be the dose on a 10% response, and the benchmark response (BMR) would be 10%. The BMD is determined by modeling the dose response curve in the region of the dose response relationship where biologically observable data are feasible.</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,7 +517,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -542,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>

--- a/analysis/terms.xlsx
+++ b/analysis/terms.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimd999/Dropbox/script/python/srpAnalytics/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D4C80D-0463-8D49-A179-97A1C8197BF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF57E960-E872-1946-82D3-67A64546171D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="13480" windowWidth="24760" windowHeight="13020" xr2:uid="{F882FDEF-851F-DC4A-B978-FE9B8FD86AFC}"/>
+    <workbookView xWindow="12080" yWindow="14440" windowWidth="24760" windowHeight="11420" xr2:uid="{F882FDEF-851F-DC4A-B978-FE9B8FD86AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>term</t>
   </si>
@@ -51,9 +51,6 @@
     <t>https://www.atsdr.cdc.gov/toxprofiles/tp30-c10.pdf</t>
   </si>
   <si>
-    <t>lower 95% confidence limit in BMD10</t>
-  </si>
-  <si>
     <t>BMDL</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>BMD50</t>
   </si>
   <si>
-    <t>dose on a 50% response</t>
-  </si>
-  <si>
     <t>TCHR</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>Akaike information criterion</t>
   </si>
   <si>
-    <t>estimator of in-sample prediction error and thereby relative quality of statistical models for a given set of data</t>
-  </si>
-  <si>
     <t>full_name</t>
   </si>
   <si>
@@ -111,10 +102,61 @@
     <t>exists in bmd_vals in Phase I,II data</t>
   </si>
   <si>
-    <t>seems different from AUC21</t>
-  </si>
-  <si>
     <t>Benchmark Dose (BMD10) — Usually defined as the lower confidence limit on the dose that produces a specified magnitude of changes in a specified adverse response. For example, a BMD10 would be the dose on a 10% response, and the benchmark response (BMR) would be 10%. The BMD is determined by modeling the dose response curve in the region of the dose response relationship where biologically observable data are feasible.</t>
+  </si>
+  <si>
+    <t>DNC</t>
+  </si>
+  <si>
+    <t>BMD</t>
+  </si>
+  <si>
+    <t>Benchmark Dose</t>
+  </si>
+  <si>
+    <t>Benchmark Dose that changes 10% effect</t>
+  </si>
+  <si>
+    <t>Benchmark Dose that changes 50% effect</t>
+  </si>
+  <si>
+    <t>BMR</t>
+  </si>
+  <si>
+    <t>Predetermined change of BMD in response</t>
+  </si>
+  <si>
+    <t>Benchmark Response</t>
+  </si>
+  <si>
+    <t>Dose or concentration that produces a predetermined change in the response rate of an adverse effect</t>
+  </si>
+  <si>
+    <t>Seems different from AUC21</t>
+  </si>
+  <si>
+    <t>Estimator of in-sample prediction error and thereby relative quality of statistical models for a given set of data</t>
+  </si>
+  <si>
+    <t>Dose on a 50% response</t>
+  </si>
+  <si>
+    <t>Lower 95% confidence limit in BMD10</t>
+  </si>
+  <si>
+    <t>If DNC=1 for a well, that well should be disregarded from the whole analysis. The instances that DNC =1 would be due to poor quality of the well (not of the animal), ie: 2 animals in there, or no animals, or chemical not added, etc. For those reasons, the denominator in the percent incidence should reflect the removal of animal.</t>
+  </si>
+  <si>
+    <t>MORT</t>
+  </si>
+  <si>
+    <t>Mortality at 120 hrs</t>
+  </si>
+  <si>
+    <t>MO24</t>
+  </si>
+  <si>
+    <t>Mortality at 24 hrs</t>
   </si>
 </sst>
 </file>
@@ -466,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6628B642-8DBE-B143-BB83-8906A12E6441}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,102 +525,154 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D8" xr:uid="{653FA9A4-0C92-5449-9984-ED304975102D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
-      <sortCondition ref="A1:A8"/>
+  <autoFilter ref="A1:D13" xr:uid="{653FA9A4-0C92-5449-9984-ED304975102D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
+      <sortCondition ref="A1:A13"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analysis/terms.xlsx
+++ b/analysis/terms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimd999/Dropbox/script/python/srpAnalytics/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF57E960-E872-1946-82D3-67A64546171D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8E76E1-6CC7-D94F-A05D-887EBD600F64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12080" yWindow="14440" windowWidth="24760" windowHeight="11420" xr2:uid="{F882FDEF-851F-DC4A-B978-FE9B8FD86AFC}"/>
+    <workbookView xWindow="20200" yWindow="15880" windowWidth="24760" windowHeight="11420" xr2:uid="{F882FDEF-851F-DC4A-B978-FE9B8FD86AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
